--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31,637.14</t>
+          <t>25,885.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>272.04</t>
+          <t>407.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4,734.32</t>
+          <t>4,988.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -546,22 +546,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9,115.38</t>
+          <t>7,693.76</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>58.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>漲升股利100指數</t>
+          <t>藍籌30指數</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,797.12</t>
+          <t>7,173.36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>50.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>藍籌30指數</t>
+          <t>工業菁英30指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8,755.02</t>
+          <t>7,665.23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>58.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>工業菁英30指數</t>
+          <t>電子菁英30指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9,913.08</t>
+          <t>7,468.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>103.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,27 +681,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>電子菁英30指數</t>
+          <t>低波動股利精選30指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9,113.56</t>
+          <t>6,317.37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>低波動股利精選30指數</t>
+          <t>中小型A級動能50指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7,145.22</t>
+          <t>14,201.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>222.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>低貝塔100指數</t>
+          <t>特選高息低波指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7,392.99</t>
+          <t>6,542.40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>32.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中小型精選50指數</t>
+          <t>臺灣永續指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,687.82</t>
+          <t>7,465.97</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48.96</t>
+          <t>40.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中小型A級動能50指數</t>
+          <t>特選內需高收益指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16,061.96</t>
+          <t>5,748.51</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>201.70</t>
+          <t>14.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,27 +856,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特選高息低波指數</t>
+          <t>價值投資指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7,369.15</t>
+          <t>5,537.35</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>臺灣永續指數</t>
+          <t>存股雙十等權重指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8,964.73</t>
+          <t>6,540.02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>68.99</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,27 +926,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特選內需高收益指數</t>
+          <t>特選大蘋果指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,085.08</t>
+          <t>6,639.90</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>138.85</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,27 +961,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>價值投資指數</t>
+          <t>中小型300指數</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,454.03</t>
+          <t>8,247.67</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>75.08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中小型300指數</t>
+          <t>特股高息20指數</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9,365.04</t>
+          <t>5,665.70</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>34.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>臺灣勞工權益指數</t>
+          <t>臺灣500指數</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,961.66</t>
+          <t>7,547.61</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>50.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>智慧投資多因子30指數</t>
+          <t>臺灣勞工權益指數</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6,070.02</t>
+          <t>7,076.39</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,27 +1101,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>臺股期貨指數</t>
+          <t>微波高息精選20指數</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8,736.94</t>
+          <t>6,185.43</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>臺灣上櫃永續指數</t>
+          <t>特選世代行動通訊指數</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7,050.48</t>
+          <t>5,850.84</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>38.78</t>
+          <t>73.65</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,30 +1171,485 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>智慧投資多因子30指數</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4,699.77</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>臺股期貨指數</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7,691.02</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>特選價值成長指數</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6,060.47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>臺灣上櫃永續指數</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5,491.05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>137.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-2.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>特選台股領航指數</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6,609.01</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>55.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>特選Smart多因子指數</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>6,985.83</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5,453.72</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>特選ESG高股息指數</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3,925.68</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG成長指數</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3,910.67</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>117.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG電子菁英指數</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3,967.86</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>123.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>新臺灣高股息指數</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4,372.24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>臺灣優息存股指數</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4,661.85</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG永續高股息指數</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5,536.77</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>148.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>特選臺灣金融高股息存股指數</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4,947.17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>上櫃ESG 30指數</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5,062.89</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>127.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-2.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
         </is>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,525.28</t>
+          <t>31,637.14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>359.89</t>
+          <t>272.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,023.18</t>
+          <t>4,734.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -546,22 +546,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,637.52</t>
+          <t>9,115.38</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>藍籌30指數</t>
+          <t>漲升股利100指數</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,096.66</t>
+          <t>7,797.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.70</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>工業菁英30指數</t>
+          <t>藍籌30指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,580.22</t>
+          <t>8,755.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>電子菁英30指數</t>
+          <t>工業菁英30指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,429.90</t>
+          <t>9,913.08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>低波動股利精選30指數</t>
+          <t>電子菁英30指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,297.64</t>
+          <t>9,113.56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19.73</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中小型A級動能50指數</t>
+          <t>低波動股利精選30指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,420.36</t>
+          <t>7,145.22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>219.34</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特選高息低波指數</t>
+          <t>低貝塔100指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,522.47</t>
+          <t>7,392.99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19.93</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>臺灣永續指數</t>
+          <t>中小型精選50指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,413.40</t>
+          <t>7,687.82</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>52.57</t>
+          <t>48.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特選內需高收益指數</t>
+          <t>中小型A級動能50指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,718.74</t>
+          <t>16,061.96</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.77</t>
+          <t>201.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,27 +856,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>價值投資指數</t>
+          <t>特選高息低波指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,486.42</t>
+          <t>7,369.15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>存股雙十等權重指數</t>
+          <t>臺灣永續指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,492.74</t>
+          <t>8,964.73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>47.28</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,27 +926,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特選大蘋果指數</t>
+          <t>特選內需高收益指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,601.33</t>
+          <t>6,085.08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中小型300指數</t>
+          <t>價值投資指數</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,250.87</t>
+          <t>8,454.03</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,27 +996,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特股高息20指數</t>
+          <t>中小型300指數</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,657.12</t>
+          <t>9,365.04</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>臺灣500指數</t>
+          <t>臺灣勞工權益指數</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,506.06</t>
+          <t>7,961.66</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>41.55</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>臺灣勞工權益指數</t>
+          <t>智慧投資多因子30指數</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,035.50</t>
+          <t>6,070.02</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40.89</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>微波高息精選20指數</t>
+          <t>臺股期貨指數</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,159.06</t>
+          <t>8,736.94</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,27 +1136,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特選世代行動通訊指數</t>
+          <t>臺灣上櫃永續指數</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,851.37</t>
+          <t>7,050.48</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>38.78</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>智慧投資多因子30指數</t>
+          <t>特選Smart多因子指數</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,676.59</t>
+          <t>6,985.83</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,470 +1186,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.18</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>臺股期貨指數</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>7,624.22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>66.80</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>特選價值成長指數</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>6,061.46</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>臺灣上櫃永續指數</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>5,496.26</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>特選台股領航指數</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>6,545.90</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>特選Smart多因子指數</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5,412.45</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>特選ESG高股息指數</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3,890.68</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG成長指數</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3,901.79</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG電子菁英指數</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3,972.28</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>新臺灣高股息指數</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4,361.94</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>臺灣優息存股指數</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4,641.94</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>19.91</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG永續高股息指數</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>5,540.59</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>特選臺灣金融高股息存股指數</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4,919.34</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-0.56</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>上櫃ESG 30指數</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>5,073.43</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
         </is>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -476,23 +476,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,885.17</t>
+          <t>25,477.44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>407.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
+          <t>618.86</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.37</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,23 +509,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4,988.50</t>
+          <t>5,028.74</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.80</t>
-        </is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,693.76</t>
+          <t>7,751.92</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
+          <t>121.27</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.54</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -581,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,173.36</t>
+          <t>7,223.39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,13 +585,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
+          <t>118.88</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.62</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -616,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,665.23</t>
+          <t>7,724.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -626,13 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
+          <t>146.20</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.86</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -651,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,468.05</t>
+          <t>7,571.93</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,13 +651,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>103.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-1.37</t>
-        </is>
+          <t>155.45</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-2.01</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -686,23 +674,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,317.37</t>
+          <t>6,302.03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -721,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,201.02</t>
+          <t>14,423.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,13 +717,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>222.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-1.54</t>
-        </is>
+          <t>259.89</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.77</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -756,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,542.40</t>
+          <t>6,574.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,13 +750,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.26</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -791,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,465.97</t>
+          <t>7,506.96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,13 +783,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
+          <t>120.71</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.58</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -826,23 +806,21 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,748.51</t>
+          <t>5,734.34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14.17</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.72</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -861,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,537.35</t>
+          <t>5,622.29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,13 +849,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-1.51</t>
-        </is>
+          <t>175.40</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.03</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -896,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,540.02</t>
+          <t>6,609.01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,13 +882,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68.99</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
+          <t>131.26</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.95</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -931,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,639.90</t>
+          <t>6,778.75</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -941,13 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>138.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-2.05</t>
-        </is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.19</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -966,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,247.67</t>
+          <t>8,322.75</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -976,13 +948,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
+          <t>126.58</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1001,23 +971,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,665.70</t>
+          <t>5,631.57</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>34.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
+          <t>44.20</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.78</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1036,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,547.61</t>
+          <t>7,598.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1046,13 +1014,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
+          <t>129.09</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.67</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1071,23 +1037,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,076.39</t>
+          <t>7,072.57</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.24</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1106,23 +1070,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,185.43</t>
+          <t>6,168.22</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17.21</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.73</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1141,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,850.84</t>
+          <t>5,924.49</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1151,13 +1113,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>73.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.02</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1176,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,699.77</t>
+          <t>4,707.49</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,13 +1146,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.92</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1211,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,691.02</t>
+          <t>7,718.37</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,13 +1179,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27.35</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
+          <t>136.75</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.74</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1246,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,060.47</t>
+          <t>6,137.98</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1256,13 +1212,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>77.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-1.26</t>
-        </is>
+          <t>191.73</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.03</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1281,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,491.05</t>
+          <t>5,628.86</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,13 +1245,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>137.81</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-2.45</t>
-        </is>
+          <t>115.76</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.02</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1316,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,609.01</t>
+          <t>6,664.80</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,13 +1278,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>55.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
+          <t>117.71</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.74</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1351,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,453.72</t>
+          <t>5,506.96</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,13 +1311,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>53.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
+          <t>106.44</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1386,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,925.68</t>
+          <t>3,928.63</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,13 +1344,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
+          <t>52.34</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.31</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1421,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,910.67</t>
+          <t>4,028.45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,13 +1377,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>117.78</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-2.92</t>
-        </is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.81</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1456,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,967.86</t>
+          <t>4,091.52</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,13 +1410,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>123.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-3.02</t>
-        </is>
+          <t>108.71</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.59</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1491,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,372.24</t>
+          <t>4,402.33</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,13 +1443,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30.09</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.49</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1526,23 +1466,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,661.85</t>
+          <t>4,645.81</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16.04</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1561,7 +1499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,536.77</t>
+          <t>5,685.53</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,13 +1509,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>148.76</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-2.62</t>
-        </is>
+          <t>138.78</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.38</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1596,23 +1532,21 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,947.17</t>
+          <t>4,913.98</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33.19</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
+          <t>64.49</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1631,7 +1565,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,062.89</t>
+          <t>5,190.01</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,13 +1575,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>127.12</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-2.45</t>
-        </is>
+          <t>118.21</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-2.23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -476,21 +476,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,477.44</t>
+          <t>25,745.72</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>618.86</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-2.37</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,21 +509,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,028.74</t>
+          <t>5,001.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>-0.05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,751.92</t>
+          <t>7,671.32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,11 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>121.27</t>
+          <t>22.55</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1.54</v>
+        <v>-0.29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,223.39</t>
+          <t>7,133.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,11 +585,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>118.88</t>
+          <t>53.93</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-1.62</v>
+        <v>-0.75</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,724.03</t>
+          <t>7,596.20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,11 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>146.20</t>
+          <t>67.29</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1.86</v>
+        <v>-0.88</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,571.93</t>
+          <t>7,451.26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,11 +651,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>155.45</t>
+          <t>34.33</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-2.01</v>
+        <v>-0.46</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,302.03</t>
+          <t>6,333.53</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +684,10 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65.32</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>-1.03</v>
-      </c>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -707,7 +705,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,423.10</t>
+          <t>14,402.81</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,11 +715,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>259.89</t>
+          <t>132.94</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-1.77</v>
+        <v>-0.91</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -740,21 +738,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,574.42</t>
+          <t>6,553.73</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -773,7 +771,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,506.96</t>
+          <t>7,457.37</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,11 +781,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>120.71</t>
+          <t>46.87</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-1.58</v>
+        <v>-0.62</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -806,7 +804,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,734.34</t>
+          <t>5,729.52</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,11 +814,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>41.62</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.72</v>
+        <v>-0.37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -839,7 +837,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,622.29</t>
+          <t>5,536.53</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,11 +847,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>175.40</t>
+          <t>22.63</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-3.03</v>
+        <v>-0.41</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -872,7 +870,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,609.01</t>
+          <t>6,523.36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,11 +880,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>131.26</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.95</v>
+        <v>-0.16</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -905,7 +903,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,778.75</t>
+          <t>6,631.29</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,11 +913,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.61</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1.19</v>
+        <v>-0.14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -938,7 +936,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,322.75</t>
+          <t>8,251.81</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,11 +946,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>126.58</t>
+          <t>41.26</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -971,21 +969,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,631.57</t>
+          <t>5,672.44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>44.20</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.78</v>
+        <v>0.19</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1004,7 +1002,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,598.05</t>
+          <t>7,536.48</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,11 +1012,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>129.09</t>
+          <t>46.08</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1037,21 +1035,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,072.57</t>
+          <t>7,058.41</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-1.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1070,21 +1068,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,168.22</t>
+          <t>6,205.21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>45.51</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.73</v>
+        <v>0.32</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1103,7 +1101,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,924.49</t>
+          <t>5,839.61</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,11 +1111,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>33.15</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-1.02</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1136,7 +1134,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,707.49</t>
+          <t>4,708.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1146,11 +1144,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-1.92</v>
+        <v>-0.51</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1169,7 +1167,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,718.37</t>
+          <t>7,668.93</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,11 +1177,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>136.75</t>
+          <t>66.27</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-1.74</v>
+        <v>-0.86</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1202,7 +1200,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,137.98</t>
+          <t>6,082.84</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1212,11 +1210,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>191.73</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-3.03</v>
+        <v>-0.43</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,628.86</t>
+          <t>5,501.35</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1245,11 +1243,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>115.76</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-2.02</v>
+        <v>-0.51</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1268,7 +1266,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,664.80</t>
+          <t>6,579.54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1278,11 +1276,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>117.71</t>
+          <t>53.60</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-1.74</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1299,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,506.96</t>
+          <t>5,438.73</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,11 +1309,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>106.44</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1334,7 +1332,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,928.63</t>
+          <t>3,926.26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1344,11 +1342,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>52.34</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-1.31</v>
+        <v>-0.33</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,7 +1365,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4,028.45</t>
+          <t>3,892.04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1377,11 +1375,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>116.43</t>
+          <t>12.22</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-2.81</v>
+        <v>-0.31</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1400,7 +1398,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,091.52</t>
+          <t>3,979.51</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1410,11 +1408,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>108.71</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-2.59</v>
+        <v>-0.32</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1433,7 +1431,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,402.33</t>
+          <t>4,372.78</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1443,11 +1441,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-1.49</v>
+        <v>-0.05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1466,7 +1464,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,645.81</t>
+          <t>4,648.90</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,11 +1474,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>49.72</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-1.06</v>
+        <v>-0.28</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1499,7 +1497,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,685.53</t>
+          <t>5,538.17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1509,11 +1507,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>138.78</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-2.38</v>
+        <v>-0.24</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1532,21 +1530,21 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,913.98</t>
+          <t>4,936.72</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>64.49</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-1.3</v>
+        <v>0.21</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1565,7 +1563,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,190.01</t>
+          <t>5,077.74</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1575,11 +1573,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>118.21</t>
+          <t>25.54</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-2.23</v>
+        <v>-0.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -476,21 +476,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,745.72</t>
+          <t>25,352.06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>393.66</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>-1.53</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,21 +509,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,001.52</t>
+          <t>5,039.76</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>38.24</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.05</v>
+        <v>0.76</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,671.32</t>
+          <t>7,620.75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,11 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>50.57</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.29</v>
+        <v>-0.66</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,133.12</t>
+          <t>7,083.44</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,11 +585,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>53.93</t>
+          <t>49.68</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.75</v>
+        <v>-0.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,596.20</t>
+          <t>7,548.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,11 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.29</t>
+          <t>47.58</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.88</v>
+        <v>-0.63</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,451.26</t>
+          <t>7,403.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,11 +651,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>47.59</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.46</v>
+        <v>-0.64</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,333.53</t>
+          <t>6,277.07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,10 +684,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.89</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -705,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,402.81</t>
+          <t>14,305.68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -715,11 +717,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>132.94</t>
+          <t>97.13</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.91</v>
+        <v>-0.67</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -738,21 +740,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,553.73</t>
+          <t>6,513.21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -771,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,457.37</t>
+          <t>7,401.68</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,11 +783,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>46.87</t>
+          <t>55.69</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.62</v>
+        <v>-0.75</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -804,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,729.52</t>
+          <t>5,691.60</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -814,11 +816,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.37</v>
+        <v>-0.66</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -837,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,536.53</t>
+          <t>5,517.22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -847,11 +849,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.63</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.41</v>
+        <v>-0.35</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -870,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,523.36</t>
+          <t>6,491.72</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -880,11 +882,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.16</v>
+        <v>-0.49</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -903,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,631.29</t>
+          <t>6,556.96</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -913,11 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>74.33</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.14</v>
+        <v>-1.12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -936,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,251.81</t>
+          <t>8,203.09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -946,11 +948,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.5</v>
+        <v>-0.59</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -969,21 +971,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,672.44</t>
+          <t>5,649.77</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.19</v>
+        <v>-0.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1002,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,536.48</t>
+          <t>7,488.25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1012,11 +1014,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46.08</t>
+          <t>48.23</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-0.61</v>
+        <v>-0.64</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1035,21 +1037,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,058.41</t>
+          <t>7,015.56</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>42.85</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1068,21 +1070,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,205.21</t>
+          <t>6,136.92</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>68.29</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.32</v>
+        <v>-1.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1101,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,839.61</t>
+          <t>5,777.56</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1111,11 +1113,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33.15</t>
+          <t>62.05</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1134,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,708.23</t>
+          <t>4,683.04</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1144,11 +1146,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>25.19</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-0.51</v>
+        <v>-0.54</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,668.93</t>
+          <t>7,636.32</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1177,11 +1179,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>66.27</t>
+          <t>32.61</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-0.86</v>
+        <v>-0.43</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1200,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,082.84</t>
+          <t>6,076.49</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1210,11 +1212,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.43</v>
+        <v>-0.1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,501.35</t>
+          <t>5,429.38</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1243,11 +1245,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>71.97</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-0.51</v>
+        <v>-1.31</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1266,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,579.54</t>
+          <t>6,547.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1276,11 +1278,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>53.60</t>
+          <t>32.49</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.49</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1299,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,438.73</t>
+          <t>5,409.84</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1309,11 +1311,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>28.89</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-0.7</v>
+        <v>-0.53</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1332,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,926.26</t>
+          <t>3,907.59</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1342,11 +1344,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-0.33</v>
+        <v>-0.48</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,892.04</t>
+          <t>3,830.27</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1375,11 +1377,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12.22</t>
+          <t>61.77</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.31</v>
+        <v>-1.59</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,979.51</t>
+          <t>3,916.41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1408,11 +1410,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>63.10</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-0.32</v>
+        <v>-1.59</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1431,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,372.78</t>
+          <t>4,343.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1441,11 +1443,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-0.05</v>
+        <v>-0.68</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1464,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,648.90</t>
+          <t>4,607.07</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1474,11 +1476,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>41.83</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.28</v>
+        <v>-0.9</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1497,7 +1499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,538.17</t>
+          <t>5,466.48</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1507,11 +1509,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>71.69</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.24</v>
+        <v>-1.29</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1530,21 +1532,21 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,936.72</t>
+          <t>4,894.75</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>41.97</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.21</v>
+        <v>-0.85</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1563,7 +1565,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,077.74</t>
+          <t>5,007.33</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1573,11 +1575,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>25.54</t>
+          <t>70.41</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-0.5</v>
+        <v>-1.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -489,9 +489,7 @@
           <t>393.66</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>-1.53</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -555,9 +553,7 @@
           <t>50.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -588,9 +584,7 @@
           <t>49.68</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -621,9 +615,7 @@
           <t>47.58</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-0.63</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -654,9 +646,7 @@
           <t>47.59</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -687,9 +677,7 @@
           <t>56.46</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>-0.89</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -720,9 +708,7 @@
           <t>97.13</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>-0.67</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -753,9 +739,7 @@
           <t>40.52</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>-0.62</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -786,9 +770,7 @@
           <t>55.69</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>-0.75</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -819,9 +801,7 @@
           <t>37.92</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -852,9 +832,7 @@
           <t>19.31</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>-0.35</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -885,9 +863,7 @@
           <t>31.64</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -918,9 +894,7 @@
           <t>74.33</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>-1.12</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -951,9 +925,7 @@
           <t>48.72</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -984,9 +956,7 @@
           <t>22.67</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>-0.4</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1017,9 +987,7 @@
           <t>48.23</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1050,9 +1018,7 @@
           <t>42.85</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1083,9 +1049,7 @@
           <t>68.29</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>-1.1</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1116,9 +1080,7 @@
           <t>62.05</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1149,9 +1111,7 @@
           <t>25.19</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>-0.54</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1182,9 +1142,7 @@
           <t>32.61</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>-0.43</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1215,9 +1173,7 @@
           <t>6.35</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>-0.1</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1248,9 +1204,7 @@
           <t>71.97</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>-1.31</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1281,9 +1235,7 @@
           <t>32.49</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1314,9 +1266,7 @@
           <t>28.89</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>-0.53</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1347,9 +1297,7 @@
           <t>18.67</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>-0.48</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1380,9 +1328,7 @@
           <t>61.77</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>-1.59</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1413,9 +1359,7 @@
           <t>63.10</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>-1.59</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1446,9 +1390,7 @@
           <t>29.73</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1479,9 +1421,7 @@
           <t>41.83</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>-0.9</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1512,9 +1452,7 @@
           <t>71.69</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>-1.29</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1545,9 +1483,7 @@
           <t>41.97</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-0.85</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1578,9 +1514,7 @@
           <t>70.41</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>-1.39</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -476,20 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,352.06</t>
+          <t>25,787.87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>393.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>435.81</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.72</v>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -507,22 +509,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,039.76</t>
+          <t>4,996.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.76</v>
-      </c>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -540,20 +540,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,620.75</t>
+          <t>7,718.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.29</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -571,20 +573,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,083.44</t>
+          <t>7,195.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>111.99</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.58</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -602,20 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,548.62</t>
+          <t>7,706.82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>47.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>158.20</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.1</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -633,20 +639,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,403.67</t>
+          <t>7,589.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>185.74</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.51</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -664,20 +672,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,277.07</t>
+          <t>6,340.89</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.02</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -695,20 +705,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,305.68</t>
+          <t>14,676.63</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>370.95</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.59</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -726,20 +738,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,513.21</t>
+          <t>6,574.44</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -757,20 +771,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,401.68</t>
+          <t>7,508.60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>106.92</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.44</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -788,20 +804,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,691.60</t>
+          <t>5,755.48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>37.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.12</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -819,20 +837,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,517.22</t>
+          <t>5,612.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -850,20 +870,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,491.72</t>
+          <t>6,581.94</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.39</v>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -881,20 +903,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,556.96</t>
+          <t>6,669.97</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>74.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>113.01</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.72</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -912,20 +936,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,203.09</t>
+          <t>8,331.79</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>48.72</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>128.70</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.57</v>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -943,20 +969,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,649.77</t>
+          <t>5,673.59</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.67</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.42</v>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -974,20 +1002,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,488.25</t>
+          <t>7,599.78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>48.23</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>111.53</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1005,20 +1035,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,015.56</t>
+          <t>7,101.08</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.22</v>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1036,20 +1068,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,136.92</t>
+          <t>6,191.12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.88</v>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1067,20 +1101,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,777.56</t>
+          <t>5,890.21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>62.05</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>112.65</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.95</v>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1098,20 +1134,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,683.04</t>
+          <t>4,733.35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25.19</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>50.31</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.07</v>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1129,20 +1167,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,636.32</t>
+          <t>7,736.78</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32.61</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>100.46</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.32</v>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1160,20 +1200,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,076.49</t>
+          <t>6,165.34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.46</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1191,20 +1233,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,429.38</t>
+          <t>5,587.24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>157.86</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.91</v>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1222,20 +1266,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,547.05</t>
+          <t>6,622.47</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>32.49</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.15</v>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1253,20 +1299,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,409.84</t>
+          <t>5,491.83</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.52</v>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1284,20 +1332,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,907.59</t>
+          <t>3,959.29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18.67</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>51.70</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.32</v>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1315,20 +1365,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,830.27</t>
+          <t>3,969.44</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>61.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>139.17</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.63</v>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1346,20 +1398,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,916.41</t>
+          <t>4,064.49</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>63.10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>148.08</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.78</v>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1377,20 +1431,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,343.05</t>
+          <t>4,411.48</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.58</v>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1408,20 +1464,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,607.07</t>
+          <t>4,661.06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>41.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>53.99</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.17</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1439,20 +1497,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,466.48</t>
+          <t>5,618.24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>151.76</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.78</v>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1470,20 +1530,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,894.75</t>
+          <t>4,934.88</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>41.97</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.82</v>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1501,20 +1563,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,007.33</t>
+          <t>5,105.21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>70.41</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.95</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>

--- a/專題/2.xlsx
+++ b/專題/2.xlsx
@@ -476,22 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,787.87</t>
+          <t>24,836.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>435.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.72</v>
-      </c>
+          <t>274.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -509,20 +507,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4,996.44</t>
+          <t>5,088.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.55</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -540,22 +540,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,718.89</t>
+          <t>7,551.38</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.29</v>
-      </c>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -573,22 +571,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,195.43</t>
+          <t>6,916.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>111.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.58</v>
-      </c>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -606,22 +602,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,706.82</t>
+          <t>7,339.37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>158.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1</v>
-      </c>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -639,22 +633,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,589.41</t>
+          <t>7,190.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>185.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.51</v>
-      </c>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -672,22 +664,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,340.89</t>
+          <t>6,302.20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.02</v>
-      </c>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -705,22 +695,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,676.63</t>
+          <t>13,893.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>370.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.59</v>
-      </c>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -738,22 +726,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,574.44</t>
+          <t>6,500.66</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>61.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9399999999999999</v>
-      </c>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -771,22 +757,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,508.60</t>
+          <t>7,275.78</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>106.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.44</v>
-      </c>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -804,22 +788,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,755.48</t>
+          <t>5,654.07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63.88</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.12</v>
-      </c>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -837,22 +819,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,612.76</t>
+          <t>5,474.89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.73</v>
-      </c>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -870,22 +850,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,581.94</t>
+          <t>6,542.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.39</v>
-      </c>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -903,22 +881,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,669.97</t>
+          <t>6,372.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>113.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.72</v>
-      </c>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -936,22 +912,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,331.79</t>
+          <t>8,115.38</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>128.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.57</v>
-      </c>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -969,22 +943,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,673.59</t>
+          <t>5,605.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.42</v>
-      </c>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1002,22 +974,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,599.78</t>
+          <t>7,363.53</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.49</v>
-      </c>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1035,22 +1005,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,101.08</t>
+          <t>6,978.82</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.22</v>
-      </c>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1068,22 +1036,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,191.12</t>
+          <t>6,152.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.20</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.88</v>
-      </c>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1101,22 +1067,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,890.21</t>
+          <t>5,636.86</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>112.65</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.95</v>
-      </c>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1134,22 +1098,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,733.35</t>
+          <t>4,668.31</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50.31</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.07</v>
-      </c>
+          <t>58.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1167,22 +1129,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,736.78</t>
+          <t>7,485.34</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>100.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.32</v>
-      </c>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1200,22 +1160,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,165.34</t>
+          <t>6,149.09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.85</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.46</v>
-      </c>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1233,22 +1191,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,587.24</t>
+          <t>5,287.14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>157.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.91</v>
-      </c>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1266,22 +1222,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,622.47</t>
+          <t>6,386.65</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.42</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.15</v>
-      </c>
+          <t>58.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1299,22 +1253,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,491.83</t>
+          <t>5,305.19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.99</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.52</v>
-      </c>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1332,22 +1284,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,959.29</t>
+          <t>3,821.41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>51.70</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.32</v>
-      </c>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1365,22 +1315,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,969.44</t>
+          <t>3,758.07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>139.17</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3.63</v>
-      </c>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1398,22 +1346,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,064.49</t>
+          <t>3,796.93</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>148.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3.78</v>
-      </c>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1431,22 +1377,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,411.48</t>
+          <t>4,300.10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.58</v>
-      </c>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1464,22 +1408,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,661.06</t>
+          <t>4,648.81</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53.99</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.17</v>
-      </c>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1497,22 +1439,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,618.24</t>
+          <t>5,370.67</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>151.76</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.78</v>
-      </c>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1530,22 +1470,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,934.88</t>
+          <t>4,819.15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>40.13</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.82</v>
-      </c>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -1563,22 +1501,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,105.21</t>
+          <t>4,874.37</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.95</v>
-      </c>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
